--- a/output/fit_clients/fit_round_372.xlsx
+++ b/output/fit_clients/fit_round_372.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2295818157.459058</v>
+        <v>1608757637.321627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07107559748516787</v>
+        <v>0.1002815306420267</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03795883707340697</v>
+        <v>0.03702759553435058</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1147909114.200108</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2430443883.347821</v>
+        <v>2532523817.948795</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1335473019190281</v>
+        <v>0.1549435887507102</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04110357132390404</v>
+        <v>0.03682959391146096</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1215222048.401743</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5186681665.221131</v>
+        <v>3303890838.855354</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1446569703102536</v>
+        <v>0.111078948206828</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02517654335406846</v>
+        <v>0.02628393078287335</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>134</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2593340930.880174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3363907317.852787</v>
+        <v>3309461234.801294</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1029558636450193</v>
+        <v>0.1045884209567335</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04018263120960047</v>
+        <v>0.04340397175678277</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>137</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1681953704.688034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2140915046.328648</v>
+        <v>1894467838.829294</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1452357470521808</v>
+        <v>0.1434804923611189</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03933864317505848</v>
+        <v>0.04043704576097914</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1070457537.519579</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2996085852.778753</v>
+        <v>2411102944.697097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06665336173309752</v>
+        <v>0.09772171185506968</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03076609016246484</v>
+        <v>0.03658141582169152</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>116</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1498042891.724563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3794664178.70775</v>
+        <v>2927225975.721602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1615278135681836</v>
+        <v>0.1703690307355127</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03187801170958716</v>
+        <v>0.03188530886816835</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>118</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1897332228.116998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2140725428.832399</v>
+        <v>2047473076.391769</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1581982667705621</v>
+        <v>0.192537380432454</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02838693208505918</v>
+        <v>0.03067180853852179</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1070362721.518469</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3688349878.409493</v>
+        <v>3783484833.584791</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1361586265040179</v>
+        <v>0.1776309673465695</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03901657196352513</v>
+        <v>0.04416030623493419</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>156</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1844174936.953363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4103520457.900848</v>
+        <v>2829634566.785237</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1195409334009882</v>
+        <v>0.1516407483988419</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03997826992045367</v>
+        <v>0.04250446222278548</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>154</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2051760248.899465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2536848769.451308</v>
+        <v>3239979876.142253</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1576807154403373</v>
+        <v>0.1980601947681969</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04224525261573738</v>
+        <v>0.0446294202472643</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>127</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1268424360.34711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4699778629.038088</v>
+        <v>4236217829.603381</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0815230416196337</v>
+        <v>0.07768641430963547</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03101392571302951</v>
+        <v>0.03081827418023172</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>125</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2349889333.917293</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2814219628.302565</v>
+        <v>3790900021.274927</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1395172114900916</v>
+        <v>0.1886893550517889</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03257265147061005</v>
+        <v>0.03194144153362679</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1407109862.051787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1476944833.604037</v>
+        <v>1282602531.050738</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06609013294781224</v>
+        <v>0.08362176993618159</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04432669837554496</v>
+        <v>0.04913814096341513</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>738472497.096347</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2334320545.256814</v>
+        <v>2528514724.338264</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1068708761859748</v>
+        <v>0.1127038077339791</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04289506253276688</v>
+        <v>0.03250235438921809</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>75</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1167160318.267722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4311851712.701591</v>
+        <v>3949689336.055464</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1585996020029662</v>
+        <v>0.1382176314978497</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05256420924169068</v>
+        <v>0.04155385252910701</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>109</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2155925875.502419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2787775524.74928</v>
+        <v>3686130051.850818</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1545036289615918</v>
+        <v>0.1677526387074342</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03056957584251026</v>
+        <v>0.02693897932890855</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>122</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1393887808.066638</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1226408740.786986</v>
+        <v>1328908377.606119</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1380347083368767</v>
+        <v>0.1785676718365578</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01838305046735208</v>
+        <v>0.01672089915874281</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>613204454.75415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1785424569.561404</v>
+        <v>1775279341.064646</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1090338791574308</v>
+        <v>0.1597258532321131</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02381005365022565</v>
+        <v>0.03119819401672537</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>892712334.0058925</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1871167019.30751</v>
+        <v>2209448850.955306</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07358149751892576</v>
+        <v>0.06367023757220346</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04543722891598661</v>
+        <v>0.0328089992146943</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>935583557.9159554</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2936252066.955154</v>
+        <v>3196139321.423274</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1141136581591366</v>
+        <v>0.1031486068304118</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05682715808303215</v>
+        <v>0.03681214157421198</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>104</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1468126098.837289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>968123434.3169023</v>
+        <v>1174045754.49372</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1464314005515674</v>
+        <v>0.1537689555961463</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04940274792848899</v>
+        <v>0.04006116573005069</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>484061792.7189602</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3581904895.534857</v>
+        <v>2744826947.319907</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1023518418416653</v>
+        <v>0.1091066685067497</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02451663027972273</v>
+        <v>0.03459348690088657</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>108</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1790952443.883306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1166876471.346391</v>
+        <v>1219049591.860593</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1112869316771079</v>
+        <v>0.09952044069741113</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01882342536733695</v>
+        <v>0.02092277701639691</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>583438261.2782242</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>880801488.5864071</v>
+        <v>1281940214.395227</v>
       </c>
       <c r="F26" t="n">
-        <v>0.116720849767098</v>
+        <v>0.07562867691607739</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03291830964125336</v>
+        <v>0.02664978808508633</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>440400687.1876903</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3046422518.0198</v>
+        <v>3699889784.639799</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1381992519838991</v>
+        <v>0.1415243655186894</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0269263622186546</v>
+        <v>0.02402283880272727</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1523211316.518634</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2704546501.671903</v>
+        <v>2659179501.787224</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1126445917438878</v>
+        <v>0.1140493293649942</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03160332902844976</v>
+        <v>0.04120354508139931</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1352273236.447794</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4654741811.306535</v>
+        <v>5897308336.305443</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1503356578666156</v>
+        <v>0.129486511958914</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02983125624202422</v>
+        <v>0.04334067640311295</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>164</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2327370877.15085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1606842194.754324</v>
+        <v>1912630318.804183</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1151370296427477</v>
+        <v>0.1247680058665389</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0354305951909754</v>
+        <v>0.0360657825038356</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>803421090.1023061</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1211269553.975769</v>
+        <v>1318646260.302579</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08608157737179914</v>
+        <v>0.07900528504467935</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03864313560177572</v>
+        <v>0.03897397963468658</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>605634725.8094815</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1849486957.385918</v>
+        <v>1320936129.601857</v>
       </c>
       <c r="F32" t="n">
-        <v>0.083675290913182</v>
+        <v>0.1111475823539606</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03097639583909254</v>
+        <v>0.02661460523214743</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>924743619.4370142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2255509735.003583</v>
+        <v>2828390782.815535</v>
       </c>
       <c r="F33" t="n">
-        <v>0.153606436589311</v>
+        <v>0.1306210734842723</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04390083316177108</v>
+        <v>0.04911902568259694</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>112</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1127754926.534573</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>970381940.1360681</v>
+        <v>1408900673.762007</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1214519020206053</v>
+        <v>0.08078718935216074</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01998948644738361</v>
+        <v>0.01886197595707226</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>485191012.7902951</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1323901000.460639</v>
+        <v>1222215323.046819</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08734298228015561</v>
+        <v>0.09313037169367359</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03261656041847677</v>
+        <v>0.04056695292778623</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>661950447.8168365</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2871644652.118516</v>
+        <v>2664111457.281456</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1306492883636284</v>
+        <v>0.1789413685173448</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0263282785314511</v>
+        <v>0.02205497517027431</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>93</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1435822318.270239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2551711197.124432</v>
+        <v>2708257135.07331</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1104626077502707</v>
+        <v>0.08320400092638425</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03432645630445837</v>
+        <v>0.04103110888512224</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>99</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1275855701.752052</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1488240185.371977</v>
+        <v>1394010472.1099</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1219568298004584</v>
+        <v>0.08086004982788117</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03496796595995866</v>
+        <v>0.03190788115202251</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>744120143.6206728</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1967252420.35069</v>
+        <v>1880261557.92061</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1931480820778412</v>
+        <v>0.150941054580886</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02830131587092222</v>
+        <v>0.02201072001580369</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>983626209.7256919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1285453554.110979</v>
+        <v>1255893004.630905</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1073737185995976</v>
+        <v>0.1033919740796543</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0581263887037543</v>
+        <v>0.05263996691523735</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>642726796.9782791</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2908994386.749669</v>
+        <v>2704891162.599011</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1388813292462271</v>
+        <v>0.1045938341866277</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0302396271675749</v>
+        <v>0.04067581969544937</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>95</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1454497178.673386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3786591051.704893</v>
+        <v>3556740401.378624</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1054386600411533</v>
+        <v>0.1087828047112745</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04437350909109639</v>
+        <v>0.0381955013362886</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1893295540.440318</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2057445129.82193</v>
+        <v>2172836547.330616</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1599597620422076</v>
+        <v>0.1824730504140298</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01772836294365146</v>
+        <v>0.02088264561887593</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>130</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1028722658.075629</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1456843838.88079</v>
+        <v>2209627536.85979</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0913002071101819</v>
+        <v>0.0778773094162096</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03657878191703928</v>
+        <v>0.03577110443225173</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>728421917.4183382</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1814835322.309756</v>
+        <v>1860649305.57327</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1467955831325714</v>
+        <v>0.161837514474097</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05562879183088367</v>
+        <v>0.04656931775775701</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>907417633.3743057</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5084530993.304008</v>
+        <v>4207082863.678916</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1551097611288499</v>
+        <v>0.1689395200357688</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03721531788142259</v>
+        <v>0.05535059408101115</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>132</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2542265528.277178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3188642270.17005</v>
+        <v>3769225348.174314</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1558355781872582</v>
+        <v>0.178468866027543</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05129591737009315</v>
+        <v>0.05091405185280597</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>100</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1594321088.24967</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4610774710.904079</v>
+        <v>3828835730.314906</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06849949876490466</v>
+        <v>0.08751119476812835</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02707226233355444</v>
+        <v>0.03852920240458039</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>121</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2305387354.321357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1273696116.426452</v>
+        <v>1788907416.41565</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1779547801394058</v>
+        <v>0.1715719078230742</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04008590439993254</v>
+        <v>0.03946612261253097</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>636848125.4395213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3838024056.509433</v>
+        <v>3935456716.333288</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1683184407216758</v>
+        <v>0.1208239147613841</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04752812232381413</v>
+        <v>0.03406824861306106</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>127</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1919012028.469825</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1152174644.441011</v>
+        <v>1259457299.109032</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1296165490816008</v>
+        <v>0.1922864043515973</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03960663278495269</v>
+        <v>0.05242923836612193</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>576087381.541101</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5154166295.124134</v>
+        <v>4747632779.413107</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1135239740602166</v>
+        <v>0.09985566588984671</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04654337127869711</v>
+        <v>0.05012449884823596</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>153</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2577083136.128036</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3330705320.645436</v>
+        <v>3631778131.86621</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1902282265374649</v>
+        <v>0.1492392478645234</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02521601906966033</v>
+        <v>0.02683656364160697</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>108</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1665352669.966687</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4517154699.171474</v>
+        <v>4071985892.761231</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1075635471636015</v>
+        <v>0.1147323386260419</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04261504166076621</v>
+        <v>0.03328071312306695</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>122</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2258577454.263725</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4646677430.472558</v>
+        <v>4363027026.548745</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2171397695659366</v>
+        <v>0.1375487968120842</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02471180829627887</v>
+        <v>0.02116230219346678</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>106</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2323338718.694198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1561927173.833864</v>
+        <v>1271123803.346523</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1367768263594058</v>
+        <v>0.1128848590955049</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04552682854576911</v>
+        <v>0.0565373995955263</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>780963620.0276914</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3704009642.23708</v>
+        <v>3889759955.804857</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1678653490518161</v>
+        <v>0.1448790867664412</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0225961444497824</v>
+        <v>0.0184797651112142</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>118</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1852004884.645689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1713191308.463135</v>
+        <v>1238512161.850685</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1319981890189682</v>
+        <v>0.1583362362613429</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03668295049981029</v>
+        <v>0.03195338015668914</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>856595665.9239804</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4311040728.899758</v>
+        <v>3914636815.641288</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1196227941687682</v>
+        <v>0.1034602208783752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04414321815154949</v>
+        <v>0.03286320807811056</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2155520325.412872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3654051400.345527</v>
+        <v>2542470296.697431</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1360395792596155</v>
+        <v>0.1908092447681818</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02746317134432327</v>
+        <v>0.0318696416084307</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>119</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1827025839.143291</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2302757292.494987</v>
+        <v>3391719107.696506</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1107182548977696</v>
+        <v>0.1188406782395909</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02147135647644391</v>
+        <v>0.03195387275762017</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>128</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1151378692.476165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1332049011.248202</v>
+        <v>1636657810.483845</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1199280495489653</v>
+        <v>0.1256388181691691</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04284493741895128</v>
+        <v>0.03564906588849652</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>666024463.5069005</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4763249333.206722</v>
+        <v>4633893902.438768</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08662294441625926</v>
+        <v>0.107249802112006</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02878668339183053</v>
+        <v>0.03092443406979647</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2381624694.943919</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3719121965.419609</v>
+        <v>3731098510.669337</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1481394206896073</v>
+        <v>0.1794847438862733</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03403601760080911</v>
+        <v>0.02596968935383114</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>115</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1859560998.830638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5592931765.013887</v>
+        <v>4657103961.566426</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1719760524068608</v>
+        <v>0.1709100207738447</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0319706289884796</v>
+        <v>0.03231985474126649</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>133</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2796465806.050067</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3647985639.582041</v>
+        <v>3881774667.903193</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1256555896809471</v>
+        <v>0.1168755364666365</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04029734658032088</v>
+        <v>0.04815268627889335</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>108</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1823992774.563914</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2970068744.920168</v>
+        <v>2997121141.041145</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06753843880922143</v>
+        <v>0.07616224037513161</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04799433021045414</v>
+        <v>0.04565776607291452</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>118</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1485034393.272875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5445030227.000247</v>
+        <v>3677427170.815394</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1056553604027475</v>
+        <v>0.1465188609595877</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03618483984345038</v>
+        <v>0.043399728782061</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2722515196.880248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2231289165.610306</v>
+        <v>2479329152.285107</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1220836835703559</v>
+        <v>0.1784638214423084</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05307448064352315</v>
+        <v>0.04403555811314667</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1115644617.664091</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2796194858.400907</v>
+        <v>2821170848.962831</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06592454813811305</v>
+        <v>0.07836612503922752</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04001097895241604</v>
+        <v>0.04865096117512988</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>106</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1398097392.897967</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4963310078.325701</v>
+        <v>4438867514.614135</v>
       </c>
       <c r="F71" t="n">
-        <v>0.173326490022541</v>
+        <v>0.1278417793476734</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02305407836500531</v>
+        <v>0.02279552567633722</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>136</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2481655142.124939</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1636008605.262714</v>
+        <v>1376537584.487296</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07654745546351427</v>
+        <v>0.08717676524504969</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04536150709457001</v>
+        <v>0.04835264945654211</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>818004307.70073</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2955817025.842695</v>
+        <v>2675529692.092754</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09593339144635916</v>
+        <v>0.1008088466538176</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04096059090099454</v>
+        <v>0.04515856797945769</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>141</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1477908512.964827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3505790728.355098</v>
+        <v>3210852780.642791</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1649528428610558</v>
+        <v>0.157835967029746</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03299080667758829</v>
+        <v>0.02231441665885759</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>127</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1752895385.882974</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2174024164.531572</v>
+        <v>2314566743.720911</v>
       </c>
       <c r="F75" t="n">
-        <v>0.15506797851989</v>
+        <v>0.1475743179471026</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0287624583953343</v>
+        <v>0.03469929391718001</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1087012030.115885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3971355562.003077</v>
+        <v>4162309627.433845</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09446143259845124</v>
+        <v>0.07900144716212049</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03299089275103991</v>
+        <v>0.02610364399926863</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1985677764.529727</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1892807412.459828</v>
+        <v>2233716059.854598</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1247279567151581</v>
+        <v>0.1713985227542532</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0254039481986374</v>
+        <v>0.02801109067480297</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>946403751.9015111</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4044140249.019029</v>
+        <v>3834631587.682322</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08551217585270512</v>
+        <v>0.08941875286275126</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05423744704295835</v>
+        <v>0.04569727846918491</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>129</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2022070087.105412</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1661568048.310342</v>
+        <v>1623187957.552975</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1745385668430582</v>
+        <v>0.1236293224836705</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03411522121676547</v>
+        <v>0.03352804426885231</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>830784086.6471778</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5501766841.654985</v>
+        <v>3943682848.045086</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1012097114507006</v>
+        <v>0.1098549931660894</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0343834537834203</v>
+        <v>0.02968683234230187</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>78</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2750883494.990124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3145221313.564323</v>
+        <v>4381799135.581413</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1328252616171751</v>
+        <v>0.0962021552808026</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02029045068923908</v>
+        <v>0.02826055645024016</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1572610588.267508</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4397321463.570947</v>
+        <v>4270644914.771378</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2133903840880367</v>
+        <v>0.1851261496246212</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02211864984083254</v>
+        <v>0.02908507883061595</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>130</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2198660749.379101</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2317727960.476365</v>
+        <v>1676545807.916516</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1016955032075162</v>
+        <v>0.1314347089663868</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04166521475826478</v>
+        <v>0.04356468971293494</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1158864005.133791</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2478116709.461702</v>
+        <v>2156904276.270012</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07288239310896527</v>
+        <v>0.08930727867559227</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04790086560002273</v>
+        <v>0.04453055386911805</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1239058289.705644</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3076010481.330908</v>
+        <v>3604126640.386073</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1495813596138901</v>
+        <v>0.1487910273087449</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05647992929273792</v>
+        <v>0.03791622736320154</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>139</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1538005309.246668</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2489983493.924499</v>
+        <v>1703624161.921352</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1133430933692057</v>
+        <v>0.1339580945639294</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01800945581508842</v>
+        <v>0.02028717496531137</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1244991842.735437</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1087432636.755594</v>
+        <v>1336554115.82718</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1737272116929995</v>
+        <v>0.176746773721594</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0272422868039473</v>
+        <v>0.04368738208838236</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>543716345.1195751</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2461876901.624509</v>
+        <v>3589989221.063868</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1082524343864911</v>
+        <v>0.1569167013881797</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03499587023673642</v>
+        <v>0.02427457420628857</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>148</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1230938428.081648</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2459846160.865941</v>
+        <v>2180141514.805059</v>
       </c>
       <c r="F89" t="n">
-        <v>0.141853194927887</v>
+        <v>0.1035114646238675</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02625375770363869</v>
+        <v>0.03794387084949912</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>125</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1229923158.141842</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1440920369.331074</v>
+        <v>1565114680.850417</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1132169591375607</v>
+        <v>0.1312493550948553</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04899985578333334</v>
+        <v>0.05319420725738187</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>720460152.576146</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1542212685.225608</v>
+        <v>1802543617.712355</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1484334972274699</v>
+        <v>0.1563163809210388</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05472072433640258</v>
+        <v>0.05065182354217893</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>771106375.9366571</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2576930056.258855</v>
+        <v>2744366097.782012</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09570952195223148</v>
+        <v>0.0945901430000315</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02969230346520347</v>
+        <v>0.03851401468996152</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>105</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1288465017.894629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3481712634.803658</v>
+        <v>3388939480.53615</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1068276748425025</v>
+        <v>0.1357031700472759</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04053616314362271</v>
+        <v>0.04291331117707321</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1740856351.560552</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2045877392.913548</v>
+        <v>2061659736.926815</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1650712543025881</v>
+        <v>0.1284010300557402</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04232426909353833</v>
+        <v>0.03249275509729855</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1022938700.8015</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3049056026.977769</v>
+        <v>2807214334.220868</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1091033187356003</v>
+        <v>0.1059600514125506</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05018684347378807</v>
+        <v>0.03445360559901529</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1524528009.697343</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2194888342.042388</v>
+        <v>1720214986.607623</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1058368894910455</v>
+        <v>0.1130400155156698</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03613613287979113</v>
+        <v>0.0291756838688854</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1097444137.203829</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3365234791.196353</v>
+        <v>4517590099.145429</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1713991361612729</v>
+        <v>0.1479887178368989</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02811931706083006</v>
+        <v>0.01785116065615351</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>119</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1682617400.932357</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2754348618.465065</v>
+        <v>2690724558.650842</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08039437587174469</v>
+        <v>0.09169591170536455</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02011032488709949</v>
+        <v>0.01984415093185335</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>99</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1377174277.271662</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3221914647.554621</v>
+        <v>3255467456.176271</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1161519806658039</v>
+        <v>0.1015496877690069</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03484377931463102</v>
+        <v>0.02240577022456755</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>116</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1610957325.864677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3600741807.234076</v>
+        <v>4037828406.598011</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1616690938438108</v>
+        <v>0.1088775512279103</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02301556508264791</v>
+        <v>0.0235615849299688</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>113</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1800370942.434809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2769715915.654442</v>
+        <v>3273139645.992299</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2226197174732057</v>
+        <v>0.1690805519943659</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05490388300931676</v>
+        <v>0.04656679134335957</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>152</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1384858016.504773</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_372.xlsx
+++ b/output/fit_clients/fit_round_372.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1608757637.321627</v>
+        <v>2053838602.830665</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1002815306420267</v>
+        <v>0.07659802100831002</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03702759553435058</v>
+        <v>0.03468533937807232</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2532523817.948795</v>
+        <v>1926580692.23933</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1549435887507102</v>
+        <v>0.1789416341339609</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03682959391146096</v>
+        <v>0.04592565610145396</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3303890838.855354</v>
+        <v>3165278831.078863</v>
       </c>
       <c r="F4" t="n">
-        <v>0.111078948206828</v>
+        <v>0.1320129558566648</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02628393078287335</v>
+        <v>0.03731682197711816</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3309461234.801294</v>
+        <v>2680574224.418902</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1045884209567335</v>
+        <v>0.06687320466288135</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04340397175678277</v>
+        <v>0.03399735888113561</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1894467838.829294</v>
+        <v>2604782375.701408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1434804923611189</v>
+        <v>0.1334708956843641</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04043704576097914</v>
+        <v>0.04640524314938578</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2411102944.697097</v>
+        <v>1981880845.203029</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09772171185506968</v>
+        <v>0.08459291686114404</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03658141582169152</v>
+        <v>0.04840424474271881</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2927225975.721602</v>
+        <v>3674892602.889348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1703690307355127</v>
+        <v>0.1377373307997148</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03188530886816835</v>
+        <v>0.02816683693729236</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2047473076.391769</v>
+        <v>1734110773.359321</v>
       </c>
       <c r="F9" t="n">
-        <v>0.192537380432454</v>
+        <v>0.1727465865906927</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03067180853852179</v>
+        <v>0.02369794813365884</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3783484833.584791</v>
+        <v>5843393275.275163</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1776309673465695</v>
+        <v>0.2095238551903353</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04416030623493419</v>
+        <v>0.04014182227140462</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2829634566.785237</v>
+        <v>3448329897.891558</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1516407483988419</v>
+        <v>0.1268663093442171</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04250446222278548</v>
+        <v>0.03695105268747371</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3239979876.142253</v>
+        <v>2449381506.280971</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1980601947681969</v>
+        <v>0.1891418471389725</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0446294202472643</v>
+        <v>0.04740257033875715</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4236217829.603381</v>
+        <v>4619561642.448112</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07768641430963547</v>
+        <v>0.09868544274497297</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03081827418023172</v>
+        <v>0.02955070103985951</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3790900021.274927</v>
+        <v>3207170097.663601</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1886893550517889</v>
+        <v>0.1806645266605816</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03194144153362679</v>
+        <v>0.02739460589579049</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1282602531.050738</v>
+        <v>1423718723.437878</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08362176993618159</v>
+        <v>0.08664941857017321</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04913814096341513</v>
+        <v>0.04080182572116313</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2528514724.338264</v>
+        <v>1783456004.317498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1127038077339791</v>
+        <v>0.08424168920702192</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03250235438921809</v>
+        <v>0.04622094541754425</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3949689336.055464</v>
+        <v>5217172373.936311</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1382176314978497</v>
+        <v>0.1488914625489914</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04155385252910701</v>
+        <v>0.03997979242002468</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3686130051.850818</v>
+        <v>2455578494.693019</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1677526387074342</v>
+        <v>0.134599071395038</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02693897932890855</v>
+        <v>0.03283105575161506</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1328908377.606119</v>
+        <v>1180275898.036848</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1785676718365578</v>
+        <v>0.1837350671676158</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01672089915874281</v>
+        <v>0.02682008667422863</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1775279341.064646</v>
+        <v>2770425879.250797</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1597258532321131</v>
+        <v>0.1245381123227737</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03119819401672537</v>
+        <v>0.03132441054177938</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2209448850.955306</v>
+        <v>1997890429.236734</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06367023757220346</v>
+        <v>0.06936959643047594</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0328089992146943</v>
+        <v>0.02956291167040233</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3196139321.423274</v>
+        <v>2576345578.171663</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1031486068304118</v>
+        <v>0.08845149342509095</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03681214157421198</v>
+        <v>0.04648593705429612</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1174045754.49372</v>
+        <v>1424593991.378742</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1537689555961463</v>
+        <v>0.1765921937400304</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04006116573005069</v>
+        <v>0.0439075185961099</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2744826947.319907</v>
+        <v>3474063821.433807</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1091066685067497</v>
+        <v>0.1066620069810589</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03459348690088657</v>
+        <v>0.02811786273530357</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1219049591.860593</v>
+        <v>1482769528.587988</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09952044069741113</v>
+        <v>0.07456330943440558</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02092277701639691</v>
+        <v>0.02159089038174331</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1281940214.395227</v>
+        <v>1249677445.570335</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07562867691607739</v>
+        <v>0.07913237133226166</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02664978808508633</v>
+        <v>0.03424392397253182</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3699889784.639799</v>
+        <v>3017410574.917428</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1415243655186894</v>
+        <v>0.1160623158441508</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02402283880272727</v>
+        <v>0.02148612643714513</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2659179501.787224</v>
+        <v>3012036821.282799</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1140493293649942</v>
+        <v>0.0988173061761905</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04120354508139931</v>
+        <v>0.04370793133360285</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5897308336.305443</v>
+        <v>5440961273.358694</v>
       </c>
       <c r="F29" t="n">
-        <v>0.129486511958914</v>
+        <v>0.1445730500191258</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04334067640311295</v>
+        <v>0.02844047639299076</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1912630318.804183</v>
+        <v>1780230701.313977</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1247680058665389</v>
+        <v>0.1177345557057481</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0360657825038356</v>
+        <v>0.03184974877778946</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1318646260.302579</v>
+        <v>1049524651.843185</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07900528504467935</v>
+        <v>0.1101814162670725</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03897397963468658</v>
+        <v>0.04554870497031879</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1320936129.601857</v>
+        <v>1312983760.295828</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1111475823539606</v>
+        <v>0.08271325828148571</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02661460523214743</v>
+        <v>0.02822769899387838</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2828390782.815535</v>
+        <v>2897943938.249537</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1306210734842723</v>
+        <v>0.1527348484138766</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04911902568259694</v>
+        <v>0.03730123046211244</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1408900673.762007</v>
+        <v>1080454942.789029</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08078718935216074</v>
+        <v>0.109408978005937</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01886197595707226</v>
+        <v>0.02417687471057624</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1222215323.046819</v>
+        <v>1149687816.016865</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09313037169367359</v>
+        <v>0.0982987840324893</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04056695292778623</v>
+        <v>0.04194293298152379</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2664111457.281456</v>
+        <v>2221303027.588055</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1789413685173448</v>
+        <v>0.1313170566847376</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02205497517027431</v>
+        <v>0.01865298100870839</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2708257135.07331</v>
+        <v>2063339709.642815</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08320400092638425</v>
+        <v>0.0958211308215688</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04103110888512224</v>
+        <v>0.0274472446350686</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1394010472.1099</v>
+        <v>1959493089.757641</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08086004982788117</v>
+        <v>0.1171878587462988</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03190788115202251</v>
+        <v>0.03826533948939101</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1880261557.92061</v>
+        <v>1861951089.161182</v>
       </c>
       <c r="F39" t="n">
-        <v>0.150941054580886</v>
+        <v>0.1741335379412992</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02201072001580369</v>
+        <v>0.02651851635391292</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1255893004.630905</v>
+        <v>1186116170.103107</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1033919740796543</v>
+        <v>0.1551721718547623</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05263996691523735</v>
+        <v>0.05963632872962679</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2704891162.599011</v>
+        <v>1889516219.29453</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1045938341866277</v>
+        <v>0.1571417048984897</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04067581969544937</v>
+        <v>0.03996328937698504</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3556740401.378624</v>
+        <v>3603922388.112198</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1087828047112745</v>
+        <v>0.126145977394518</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0381955013362886</v>
+        <v>0.04057184507153071</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2172836547.330616</v>
+        <v>1871524615.434488</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1824730504140298</v>
+        <v>0.1835514780804639</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02088264561887593</v>
+        <v>0.01890805401310248</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2209627536.85979</v>
+        <v>1933632494.184296</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0778773094162096</v>
+        <v>0.09710787476968008</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03577110443225173</v>
+        <v>0.03637170746753174</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1860649305.57327</v>
+        <v>1627991289.044262</v>
       </c>
       <c r="F45" t="n">
-        <v>0.161837514474097</v>
+        <v>0.1574028051211665</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04656931775775701</v>
+        <v>0.05563746388690093</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4207082863.678916</v>
+        <v>5562266764.488989</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1689395200357688</v>
+        <v>0.1322031229530775</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05535059408101115</v>
+        <v>0.03811859372339958</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3769225348.174314</v>
+        <v>4227755058.647027</v>
       </c>
       <c r="F47" t="n">
-        <v>0.178468866027543</v>
+        <v>0.1579603527071523</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05091405185280597</v>
+        <v>0.04418106795268557</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3828835730.314906</v>
+        <v>3852888043.808558</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08751119476812835</v>
+        <v>0.09253425528582768</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03852920240458039</v>
+        <v>0.03631038370437528</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1788907416.41565</v>
+        <v>1479023317.128894</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1715719078230742</v>
+        <v>0.1922372917922352</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03946612261253097</v>
+        <v>0.02964152992461</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3935456716.333288</v>
+        <v>4076406575.867639</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1208239147613841</v>
+        <v>0.130309012115087</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03406824861306106</v>
+        <v>0.03448173792102541</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1259457299.109032</v>
+        <v>1461348793.23858</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1922864043515973</v>
+        <v>0.1365675289182209</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05242923836612193</v>
+        <v>0.05326337038117527</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4747632779.413107</v>
+        <v>3830539224.094488</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09985566588984671</v>
+        <v>0.1342756474511781</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05012449884823596</v>
+        <v>0.05348364419881214</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3631778131.86621</v>
+        <v>2715234158.965239</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1492392478645234</v>
+        <v>0.184790535259837</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02683656364160697</v>
+        <v>0.02678675320459355</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4071985892.761231</v>
+        <v>3368030983.785032</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1147323386260419</v>
+        <v>0.1664896137420557</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03328071312306695</v>
+        <v>0.03200536269033928</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4363027026.548745</v>
+        <v>3277020049.748848</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1375487968120842</v>
+        <v>0.1383603742237348</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02116230219346678</v>
+        <v>0.02832092194280707</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1271123803.346523</v>
+        <v>1647507263.677853</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1128848590955049</v>
+        <v>0.1611667994671359</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0565373995955263</v>
+        <v>0.03998117225106166</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3889759955.804857</v>
+        <v>3088811277.440292</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1448790867664412</v>
+        <v>0.1667731530998496</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0184797651112142</v>
+        <v>0.02460406335464766</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1238512161.850685</v>
+        <v>1188711033.91046</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1583362362613429</v>
+        <v>0.1298274611084763</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03195338015668914</v>
+        <v>0.02795168880591987</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3914636815.641288</v>
+        <v>4543589241.617959</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1034602208783752</v>
+        <v>0.1139649539612332</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03286320807811056</v>
+        <v>0.04788033736334167</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2542470296.697431</v>
+        <v>2602124137.578103</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1908092447681818</v>
+        <v>0.1442860052072599</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0318696416084307</v>
+        <v>0.03177820408146829</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3391719107.696506</v>
+        <v>2439923484.897092</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1188406782395909</v>
+        <v>0.1741322573060813</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03195387275762017</v>
+        <v>0.02609618202160155</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1636657810.483845</v>
+        <v>1429017344.845156</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1256388181691691</v>
+        <v>0.1621067042437445</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03564906588849652</v>
+        <v>0.03032669959969604</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4633893902.438768</v>
+        <v>4750171106.246062</v>
       </c>
       <c r="F63" t="n">
-        <v>0.107249802112006</v>
+        <v>0.08212200842494249</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03092443406979647</v>
+        <v>0.03553497034112373</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3731098510.669337</v>
+        <v>5070431915.93412</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1794847438862733</v>
+        <v>0.143935050684908</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02596968935383114</v>
+        <v>0.03233440810106893</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4657103961.566426</v>
+        <v>3618904832.000389</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1709100207738447</v>
+        <v>0.1250359086517537</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03231985474126649</v>
+        <v>0.0312909338250847</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3881774667.903193</v>
+        <v>3728053356.822603</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1168755364666365</v>
+        <v>0.1154323765751516</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04815268627889335</v>
+        <v>0.04156786864642168</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2997121141.041145</v>
+        <v>3292566841.959411</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07616224037513161</v>
+        <v>0.07774349924434328</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04565776607291452</v>
+        <v>0.03302507374478383</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3677427170.815394</v>
+        <v>3820507087.670769</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1465188609595877</v>
+        <v>0.1482792134709653</v>
       </c>
       <c r="G68" t="n">
-        <v>0.043399728782061</v>
+        <v>0.03289044485654294</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2479329152.285107</v>
+        <v>2142558556.386966</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1784638214423084</v>
+        <v>0.1693363557986261</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04403555811314667</v>
+        <v>0.0399538128822572</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2821170848.962831</v>
+        <v>2556758609.24703</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07836612503922752</v>
+        <v>0.09046116304207345</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04865096117512988</v>
+        <v>0.04359751853040986</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4438867514.614135</v>
+        <v>3597516157.197499</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1278417793476734</v>
+        <v>0.1203496172607117</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02279552567633722</v>
+        <v>0.0260387770609543</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1376537584.487296</v>
+        <v>1900322171.473119</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08717676524504969</v>
+        <v>0.06729237540788791</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04835264945654211</v>
+        <v>0.05173109435549108</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2675529692.092754</v>
+        <v>2837243775.962942</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1008088466538176</v>
+        <v>0.07535355549782655</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04515856797945769</v>
+        <v>0.04661503457754851</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3210852780.642791</v>
+        <v>2445397757.470291</v>
       </c>
       <c r="F74" t="n">
-        <v>0.157835967029746</v>
+        <v>0.1274209593341411</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02231441665885759</v>
+        <v>0.02771044759860578</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2314566743.720911</v>
+        <v>2173716132.667653</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1475743179471026</v>
+        <v>0.1339720309569267</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03469929391718001</v>
+        <v>0.03606347614708788</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4162309627.433845</v>
+        <v>4956025142.70348</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07900144716212049</v>
+        <v>0.08566063013740811</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02610364399926863</v>
+        <v>0.02916113373495834</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2233716059.854598</v>
+        <v>2241689450.410346</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1713985227542532</v>
+        <v>0.1841912498339432</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02801109067480297</v>
+        <v>0.03025870101497117</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3834631587.682322</v>
+        <v>4601506338.571098</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08941875286275126</v>
+        <v>0.1224528964974605</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04569727846918491</v>
+        <v>0.05321526446400723</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1623187957.552975</v>
+        <v>1296998154.767754</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1236293224836705</v>
+        <v>0.1542836849457303</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03352804426885231</v>
+        <v>0.02740799080175409</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3943682848.045086</v>
+        <v>4920278292.95074</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1098549931660894</v>
+        <v>0.1083538132590905</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02968683234230187</v>
+        <v>0.03686410801507146</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4381799135.581413</v>
+        <v>3996038766.083336</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0962021552808026</v>
+        <v>0.1258751754944997</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02826055645024016</v>
+        <v>0.02857181709889001</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4270644914.771378</v>
+        <v>4393750637.442588</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1851261496246212</v>
+        <v>0.2029362831994135</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02908507883061595</v>
+        <v>0.02414379439627004</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1676545807.916516</v>
+        <v>2071811515.085712</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1314347089663868</v>
+        <v>0.1135537241435318</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04356468971293494</v>
+        <v>0.04379988740916377</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2156904276.270012</v>
+        <v>1717587569.694316</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08930727867559227</v>
+        <v>0.07923215393522884</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04453055386911805</v>
+        <v>0.03639082120223644</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3604126640.386073</v>
+        <v>2649238635.030676</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1487910273087449</v>
+        <v>0.1733017546277779</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03791622736320154</v>
+        <v>0.05481952571615177</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1703624161.921352</v>
+        <v>2757881431.540721</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1339580945639294</v>
+        <v>0.1711579232003013</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02028717496531137</v>
+        <v>0.02631406941838852</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1336554115.82718</v>
+        <v>1041195473.410617</v>
       </c>
       <c r="F87" t="n">
-        <v>0.176746773721594</v>
+        <v>0.1330891214655708</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04368738208838236</v>
+        <v>0.03518457574241165</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3589989221.063868</v>
+        <v>2749402484.146545</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1569167013881797</v>
+        <v>0.1733476547169217</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02427457420628857</v>
+        <v>0.02730873900331358</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2180141514.805059</v>
+        <v>2653808843.659487</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1035114646238675</v>
+        <v>0.09837730715821164</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03794387084949912</v>
+        <v>0.031854571261666</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1565114680.850417</v>
+        <v>1813871655.432791</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1312493550948553</v>
+        <v>0.1298272579694699</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05319420725738187</v>
+        <v>0.04187208809894877</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1802543617.712355</v>
+        <v>2076793813.754158</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1563163809210388</v>
+        <v>0.164238496067506</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05065182354217893</v>
+        <v>0.06007955234894771</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2744366097.782012</v>
+        <v>1964404413.977714</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0945901430000315</v>
+        <v>0.09032352867256783</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03851401468996152</v>
+        <v>0.03307817212628029</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3388939480.53615</v>
+        <v>3350440977.149642</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1357031700472759</v>
+        <v>0.1165018682638595</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04291331117707321</v>
+        <v>0.05126943189013449</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2061659736.926815</v>
+        <v>2099431042.699802</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1284010300557402</v>
+        <v>0.1382293642922856</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03249275509729855</v>
+        <v>0.03087954863179664</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2807214334.220868</v>
+        <v>3021024820.539542</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1059600514125506</v>
+        <v>0.1337111951538136</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03445360559901529</v>
+        <v>0.05159197049973014</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1720214986.607623</v>
+        <v>1924582534.942358</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1130400155156698</v>
+        <v>0.1331391391678991</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0291756838688854</v>
+        <v>0.0424448141012356</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4517590099.145429</v>
+        <v>4310153019.294611</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1479887178368989</v>
+        <v>0.1417921509213668</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01785116065615351</v>
+        <v>0.01817971337238398</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2690724558.650842</v>
+        <v>3267695605.280297</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09169591170536455</v>
+        <v>0.08335915358254975</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01984415093185335</v>
+        <v>0.02588382788585699</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3255467456.176271</v>
+        <v>2648087566.80426</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1015496877690069</v>
+        <v>0.1142133839203341</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02240577022456755</v>
+        <v>0.03135230118868704</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4037828406.598011</v>
+        <v>3802284861.340615</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1088775512279103</v>
+        <v>0.1254336014577717</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0235615849299688</v>
+        <v>0.0194038011333755</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3273139645.992299</v>
+        <v>3293093218.149449</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1690805519943659</v>
+        <v>0.2021288285365168</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04656679134335957</v>
+        <v>0.04479315327326203</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_372.xlsx
+++ b/output/fit_clients/fit_round_372.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2053838602.830665</v>
+        <v>1668575740.480952</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07659802100831002</v>
+        <v>0.09436392068667722</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03468533937807232</v>
+        <v>0.033754548684198</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1926580692.23933</v>
+        <v>2219080201.530914</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1789416341339609</v>
+        <v>0.1610481999950754</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04592565610145396</v>
+        <v>0.04314050611317752</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3165278831.078863</v>
+        <v>5059974499.257637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1320129558566648</v>
+        <v>0.1630957574802475</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03731682197711816</v>
+        <v>0.03319621000231469</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>191</v>
+      </c>
+      <c r="J4" t="n">
+        <v>372</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2680574224.418902</v>
+        <v>3455386599.601693</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06687320466288135</v>
+        <v>0.07815978161343896</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03399735888113561</v>
+        <v>0.03202316044985153</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>149</v>
+      </c>
+      <c r="J5" t="n">
+        <v>372</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2604782375.701408</v>
+        <v>2307374931.005913</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1334708956843641</v>
+        <v>0.1199344335140326</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04640524314938578</v>
+        <v>0.04206853584375442</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1981880845.203029</v>
+        <v>2857342093.160478</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08459291686114404</v>
+        <v>0.07864557386681321</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04840424474271881</v>
+        <v>0.03735397201886651</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3674892602.889348</v>
+        <v>2633250348.726262</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1377373307997148</v>
+        <v>0.2037488246076732</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02816683693729236</v>
+        <v>0.03120708135860829</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>371</v>
+      </c>
+      <c r="K8" t="n">
+        <v>35.93999811993046</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1734110773.359321</v>
+        <v>1656173194.304688</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1727465865906927</v>
+        <v>0.1666257799431957</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02369794813365884</v>
+        <v>0.02809478671837035</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5843393275.275163</v>
+        <v>5510537263.615746</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2095238551903353</v>
+        <v>0.1963807913693313</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04014182227140462</v>
+        <v>0.04614719720173943</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>308</v>
+      </c>
+      <c r="J10" t="n">
+        <v>371</v>
+      </c>
+      <c r="K10" t="n">
+        <v>56.62894659380906</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3448329897.891558</v>
+        <v>3957557160.007695</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1268663093442171</v>
+        <v>0.1717901736531371</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03695105268747371</v>
+        <v>0.03341320535724258</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>154</v>
+      </c>
+      <c r="J11" t="n">
+        <v>372</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2449381506.280971</v>
+        <v>2074798442.852481</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1891418471389725</v>
+        <v>0.1766861926677301</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04740257033875715</v>
+        <v>0.0518934720128498</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4619561642.448112</v>
+        <v>4794901551.355162</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09868544274497297</v>
+        <v>0.09741758463262247</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02955070103985951</v>
+        <v>0.02668242562639226</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>193</v>
+      </c>
+      <c r="J13" t="n">
+        <v>372</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3207170097.663601</v>
+        <v>2536200825.452189</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1806645266605816</v>
+        <v>0.1711560247817453</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02739460589579049</v>
+        <v>0.04379615450955995</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>77</v>
+      </c>
+      <c r="J14" t="n">
+        <v>370</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1423718723.437878</v>
+        <v>1832236487.680351</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08664941857017321</v>
+        <v>0.1050904334619509</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04080182572116313</v>
+        <v>0.04699355433747226</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1783456004.317498</v>
+        <v>2481615113.176213</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08424168920702192</v>
+        <v>0.1141603220116935</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04622094541754425</v>
+        <v>0.03696839923166088</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5217172373.936311</v>
+        <v>4223291958.608583</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1488914625489914</v>
+        <v>0.1729460265188658</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03997979242002468</v>
+        <v>0.04327551634612405</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>176</v>
+      </c>
+      <c r="J17" t="n">
+        <v>371</v>
+      </c>
+      <c r="K17" t="n">
+        <v>56.68254436173833</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2455578494.693019</v>
+        <v>3398514460.4775</v>
       </c>
       <c r="F18" t="n">
-        <v>0.134599071395038</v>
+        <v>0.1190691044631547</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03283105575161506</v>
+        <v>0.02864890975804354</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>372</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1180275898.036848</v>
+        <v>1148848118.237982</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1837350671676158</v>
+        <v>0.1872339819484573</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02682008667422863</v>
+        <v>0.01802605178493345</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2770425879.250797</v>
+        <v>2765030966.064118</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1245381123227737</v>
+        <v>0.1031839373211802</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03132441054177938</v>
+        <v>0.02429699266640872</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1997890429.236734</v>
+        <v>2251752206.160977</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06936959643047594</v>
+        <v>0.09735211866417634</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02956291167040233</v>
+        <v>0.04556578413250049</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2576345578.171663</v>
+        <v>3049107154.628797</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08845149342509095</v>
+        <v>0.1317053062972278</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04648593705429612</v>
+        <v>0.03965737443371779</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>105</v>
+      </c>
+      <c r="J22" t="n">
+        <v>370</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1424593991.378742</v>
+        <v>1448177472.876863</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1765921937400304</v>
+        <v>0.1845082250331583</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0439075185961099</v>
+        <v>0.04747689821071942</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3474063821.433807</v>
+        <v>3237770793.940462</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1066620069810589</v>
+        <v>0.09942463785338707</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02811786273530357</v>
+        <v>0.0289785275944092</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>115</v>
+      </c>
+      <c r="J24" t="n">
+        <v>371</v>
+      </c>
+      <c r="K24" t="n">
+        <v>45.12044159922498</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1482769528.587988</v>
+        <v>1174256064.660019</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07456330943440558</v>
+        <v>0.09511109181166048</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02159089038174331</v>
+        <v>0.02158755440155231</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1249677445.570335</v>
+        <v>1446769150.32778</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07913237133226166</v>
+        <v>0.1021484250501887</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03424392397253182</v>
+        <v>0.02732828218322733</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3017410574.917428</v>
+        <v>3530140126.067933</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1160623158441508</v>
+        <v>0.1285645854323493</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02148612643714513</v>
+        <v>0.02476774696485301</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>156</v>
+      </c>
+      <c r="J27" t="n">
+        <v>371</v>
+      </c>
+      <c r="K27" t="n">
+        <v>50.43041629080693</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3012036821.282799</v>
+        <v>3180528647.265802</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0988173061761905</v>
+        <v>0.1278716197295444</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04370793133360285</v>
+        <v>0.03470102825763533</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5440961273.358694</v>
+        <v>3910105794.011406</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1445730500191258</v>
+        <v>0.1312370546757637</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02844047639299076</v>
+        <v>0.02851052205832713</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>324</v>
+      </c>
+      <c r="J29" t="n">
+        <v>372</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1780230701.313977</v>
+        <v>2295550466.266097</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1177345557057481</v>
+        <v>0.1369906410649894</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03184974877778946</v>
+        <v>0.03452097684855051</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1049524651.843185</v>
+        <v>1274246553.718747</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1101814162670725</v>
+        <v>0.08820278359888511</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04554870497031879</v>
+        <v>0.0404414424857459</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1312983760.295828</v>
+        <v>1752603869.072456</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08271325828148571</v>
+        <v>0.115637061047101</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02822769899387838</v>
+        <v>0.03470798862203972</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2897943938.249537</v>
+        <v>2947283476.361614</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1527348484138766</v>
+        <v>0.2079786002399002</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03730123046211244</v>
+        <v>0.05809137082323696</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1080454942.789029</v>
+        <v>1269526757.778776</v>
       </c>
       <c r="F34" t="n">
-        <v>0.109408978005937</v>
+        <v>0.1083266058043388</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02417687471057624</v>
+        <v>0.02075822079662322</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1149687816.016865</v>
+        <v>1364497412.049737</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0982987840324893</v>
+        <v>0.09276540563807988</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04194293298152379</v>
+        <v>0.03664595741720525</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2221303027.588055</v>
+        <v>2214763165.270069</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1313170566847376</v>
+        <v>0.1329794932530392</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01865298100870839</v>
+        <v>0.01991761706793004</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2063339709.642815</v>
+        <v>2463480527.170853</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0958211308215688</v>
+        <v>0.07346322294142692</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0274472446350686</v>
+        <v>0.03189671022259888</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1959493089.757641</v>
+        <v>2052166980.878275</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1171878587462988</v>
+        <v>0.1016828655834216</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03826533948939101</v>
+        <v>0.03596241425335065</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1861951089.161182</v>
+        <v>2009617224.984582</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1741335379412992</v>
+        <v>0.1944537777167021</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02651851635391292</v>
+        <v>0.0329517932786148</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1186116170.103107</v>
+        <v>1422556869.798046</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1551721718547623</v>
+        <v>0.1519716822881891</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05963632872962679</v>
+        <v>0.05111373878515316</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1889516219.29453</v>
+        <v>2295384100.703672</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1571417048984897</v>
+        <v>0.1175723929253173</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03996328937698504</v>
+        <v>0.04408969446897104</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3603922388.112198</v>
+        <v>3142447923.21874</v>
       </c>
       <c r="F42" t="n">
-        <v>0.126145977394518</v>
+        <v>0.1116134147234673</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04057184507153071</v>
+        <v>0.0308508762137657</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>164</v>
+      </c>
+      <c r="J42" t="n">
+        <v>367</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1871524615.434488</v>
+        <v>2671922893.020929</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1835514780804639</v>
+        <v>0.1762937150394506</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01890805401310248</v>
+        <v>0.02275028226106871</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1933632494.184296</v>
+        <v>2249060983.896487</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09710787476968008</v>
+        <v>0.1003815637820229</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03637170746753174</v>
+        <v>0.03203380542103976</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1627991289.044262</v>
+        <v>2013052573.641493</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1574028051211665</v>
+        <v>0.184330562128246</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05563746388690093</v>
+        <v>0.05406930423957106</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2051,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5562266764.488989</v>
+        <v>4644523437.193701</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1322031229530775</v>
+        <v>0.1590291860063473</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03811859372339958</v>
+        <v>0.05154561890113795</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>222</v>
+      </c>
+      <c r="J46" t="n">
+        <v>372</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4227755058.647027</v>
+        <v>3374801159.999747</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1579603527071523</v>
+        <v>0.1459539768960276</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04418106795268557</v>
+        <v>0.04807843203121999</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>166</v>
+      </c>
+      <c r="J47" t="n">
+        <v>370</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3852888043.808558</v>
+        <v>3889294666.307692</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09253425528582768</v>
+        <v>0.09828327421157879</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03631038370437528</v>
+        <v>0.03101677241004602</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>192</v>
+      </c>
+      <c r="J48" t="n">
+        <v>372</v>
+      </c>
+      <c r="K48" t="n">
+        <v>57.97772722134243</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1479023317.128894</v>
+        <v>1974278819.760908</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1922372917922352</v>
+        <v>0.1603803765641921</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02964152992461</v>
+        <v>0.0413334654007346</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4076406575.867639</v>
+        <v>3486432197.629419</v>
       </c>
       <c r="F50" t="n">
-        <v>0.130309012115087</v>
+        <v>0.1166757572601408</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03448173792102541</v>
+        <v>0.0456820648280499</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>124</v>
+      </c>
+      <c r="J50" t="n">
+        <v>372</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1461348793.23858</v>
+        <v>1064810653.132015</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1365675289182209</v>
+        <v>0.1492847745043588</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05326337038117527</v>
+        <v>0.04451414199289179</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3830539224.094488</v>
+        <v>4097554685.737532</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1342756474511781</v>
+        <v>0.1363425440322012</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05348364419881214</v>
+        <v>0.0468215851691899</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>219</v>
+      </c>
+      <c r="J52" t="n">
+        <v>371</v>
+      </c>
+      <c r="K52" t="n">
+        <v>53.87990979963898</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2715234158.965239</v>
+        <v>2999796310.690968</v>
       </c>
       <c r="F53" t="n">
-        <v>0.184790535259837</v>
+        <v>0.1549821050063586</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02678675320459355</v>
+        <v>0.03262170376758961</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3368030983.785032</v>
+        <v>3319422503.585186</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1664896137420557</v>
+        <v>0.1131566140481973</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03200536269033928</v>
+        <v>0.04720235148608142</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>198</v>
+      </c>
+      <c r="J54" t="n">
+        <v>371</v>
+      </c>
+      <c r="K54" t="n">
+        <v>45.5509638635999</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3277020049.748848</v>
+        <v>3270719891.55162</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1383603742237348</v>
+        <v>0.1358576287085879</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02832092194280707</v>
+        <v>0.02691949971333269</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>178</v>
+      </c>
+      <c r="J55" t="n">
+        <v>370</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1647507263.677853</v>
+        <v>1163316321.789639</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1611667994671359</v>
+        <v>0.108994679771783</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03998117225106166</v>
+        <v>0.03653991199252511</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3088811277.440292</v>
+        <v>3154967385.368318</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1667731530998496</v>
+        <v>0.1159683341859088</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02460406335464766</v>
+        <v>0.01730978721012094</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>156</v>
+      </c>
+      <c r="J57" t="n">
+        <v>371</v>
+      </c>
+      <c r="K57" t="n">
+        <v>41.84609888227586</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1188711033.91046</v>
+        <v>1168896438.078963</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1298274611084763</v>
+        <v>0.2021562743035471</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02795168880591987</v>
+        <v>0.03047993730498947</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2514,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4543589241.617959</v>
+        <v>3725901558.421289</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1139649539612332</v>
+        <v>0.120578686835765</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04788033736334167</v>
+        <v>0.03252878423186679</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>181</v>
+      </c>
+      <c r="J59" t="n">
+        <v>372</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2549,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2602124137.578103</v>
+        <v>2810603812.551776</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1442860052072599</v>
+        <v>0.1798313141432134</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03177820408146829</v>
+        <v>0.0332567888169617</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>67</v>
+      </c>
+      <c r="J60" t="n">
+        <v>371</v>
+      </c>
+      <c r="K60" t="n">
+        <v>45.60229917458366</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2439923484.897092</v>
+        <v>2944889590.60331</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1741322573060813</v>
+        <v>0.1264358816079625</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02609618202160155</v>
+        <v>0.02433589057355965</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1429017344.845156</v>
+        <v>2066227763.051477</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1621067042437445</v>
+        <v>0.1658896132092235</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03032669959969604</v>
+        <v>0.04587885639507973</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4750171106.246062</v>
+        <v>5616807687.317042</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08212200842494249</v>
+        <v>0.09072028794774874</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03553497034112373</v>
+        <v>0.04227764388159445</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>183</v>
+      </c>
+      <c r="J63" t="n">
+        <v>371</v>
+      </c>
+      <c r="K63" t="n">
+        <v>56.65495753473738</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5070431915.93412</v>
+        <v>3739686803.929052</v>
       </c>
       <c r="F64" t="n">
-        <v>0.143935050684908</v>
+        <v>0.1645451698938936</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03233440810106893</v>
+        <v>0.03161567964678906</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>185</v>
+      </c>
+      <c r="J64" t="n">
+        <v>371</v>
+      </c>
+      <c r="K64" t="n">
+        <v>54.58397514948164</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3618904832.000389</v>
+        <v>4090630550.615042</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1250359086517537</v>
+        <v>0.1543101275888292</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0312909338250847</v>
+        <v>0.02372645039552327</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>281</v>
+      </c>
+      <c r="J65" t="n">
+        <v>372</v>
+      </c>
+      <c r="K65" t="n">
+        <v>58.54751455644282</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3728053356.822603</v>
+        <v>4286762262.410856</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1154323765751516</v>
+        <v>0.1615614104125479</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04156786864642168</v>
+        <v>0.04621405709322975</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>184</v>
+      </c>
+      <c r="J66" t="n">
+        <v>371</v>
+      </c>
+      <c r="K66" t="n">
+        <v>53.63132739446507</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3292566841.959411</v>
+        <v>3087897417.754847</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07774349924434328</v>
+        <v>0.07244010044847186</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03302507374478383</v>
+        <v>0.03132729844624718</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3820507087.670769</v>
+        <v>4696401795.58763</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1482792134709653</v>
+        <v>0.1186926888626224</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03289044485654294</v>
+        <v>0.03470261835059496</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>202</v>
+      </c>
+      <c r="J68" t="n">
+        <v>371</v>
+      </c>
+      <c r="K68" t="n">
+        <v>56.48594309199859</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2142558556.386966</v>
+        <v>1662950325.847677</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1693363557986261</v>
+        <v>0.1525241362205409</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0399538128822572</v>
+        <v>0.04975442206044953</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2556758609.24703</v>
+        <v>2283452199.167778</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09046116304207345</v>
+        <v>0.08117844404465838</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04359751853040986</v>
+        <v>0.03335549315642235</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3597516157.197499</v>
+        <v>4775126964.62306</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1203496172607117</v>
+        <v>0.1225642649802936</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0260387770609543</v>
+        <v>0.02746602625597969</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>267</v>
+      </c>
+      <c r="J71" t="n">
+        <v>372</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1900322171.473119</v>
+        <v>1496358838.237033</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06729237540788791</v>
+        <v>0.07746797962562844</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05173109435549108</v>
+        <v>0.04994633328351724</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2837243775.962942</v>
+        <v>3023249934.786262</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07535355549782655</v>
+        <v>0.08186629625732457</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04661503457754851</v>
+        <v>0.04934046708513921</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2445397757.470291</v>
+        <v>2727672951.294</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1274209593341411</v>
+        <v>0.1142113103654933</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02771044759860578</v>
+        <v>0.02607793228907095</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>106</v>
+      </c>
+      <c r="J74" t="n">
+        <v>369</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2173716132.667653</v>
+        <v>2357000695.712317</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1339720309569267</v>
+        <v>0.1671852325528599</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03606347614708788</v>
+        <v>0.03150105943035339</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4956025142.70348</v>
+        <v>3335974187.951125</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08566063013740811</v>
+        <v>0.1170364309485288</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02916113373495834</v>
+        <v>0.02371331751842197</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>176</v>
+      </c>
+      <c r="J76" t="n">
+        <v>370</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2241689450.410346</v>
+        <v>1920840982.614328</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1841912498339432</v>
+        <v>0.1309296336000287</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03025870101497117</v>
+        <v>0.02917669257310673</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4601506338.571098</v>
+        <v>3836152351.482195</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1224528964974605</v>
+        <v>0.1136459361232005</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05321526446400723</v>
+        <v>0.05011093261592536</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>186</v>
+      </c>
+      <c r="J78" t="n">
+        <v>372</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1296998154.767754</v>
+        <v>1819072282.362417</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1542836849457303</v>
+        <v>0.156115552403622</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02740799080175409</v>
+        <v>0.02750947160149169</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4920278292.95074</v>
+        <v>5225178126.739651</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1083538132590905</v>
+        <v>0.0818934499944349</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03686410801507146</v>
+        <v>0.02567320695938661</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>181</v>
+      </c>
+      <c r="J80" t="n">
+        <v>372</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3996038766.083336</v>
+        <v>3414335945.509064</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1258751754944997</v>
+        <v>0.1153603001810734</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02857181709889001</v>
+        <v>0.02144200151634914</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>172</v>
+      </c>
+      <c r="J81" t="n">
+        <v>372</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4393750637.442588</v>
+        <v>5137029944.245485</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2029362831994135</v>
+        <v>0.1566652731859406</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02414379439627004</v>
+        <v>0.02024824055816319</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>259</v>
+      </c>
+      <c r="J82" t="n">
+        <v>372</v>
+      </c>
+      <c r="K82" t="n">
+        <v>57.96808331691366</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2071811515.085712</v>
+        <v>2435421167.962606</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1135537241435318</v>
+        <v>0.1163257893274148</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04379988740916377</v>
+        <v>0.03044596431295948</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1717587569.694316</v>
+        <v>2357816843.418495</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07923215393522884</v>
+        <v>0.09493026661120589</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03639082120223644</v>
+        <v>0.04890665791313069</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2649238635.030676</v>
+        <v>3130600620.404692</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1733017546277779</v>
+        <v>0.165068434322058</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05481952571615177</v>
+        <v>0.05111950758645194</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>48</v>
+      </c>
+      <c r="J85" t="n">
+        <v>372</v>
+      </c>
+      <c r="K85" t="n">
+        <v>65.18441101863687</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2757881431.540721</v>
+        <v>2281431341.789112</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1711579232003013</v>
+        <v>0.1440018960216012</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02631406941838852</v>
+        <v>0.02302469843608631</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1041195473.410617</v>
+        <v>1272989391.752023</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1330891214655708</v>
+        <v>0.1545473662907811</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03518457574241165</v>
+        <v>0.04132414935375963</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2749402484.146545</v>
+        <v>3718770728.669739</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1733476547169217</v>
+        <v>0.1760669621143149</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02730873900331358</v>
+        <v>0.03181750095203731</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>372</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2653808843.659487</v>
+        <v>3391998359.03922</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09837730715821164</v>
+        <v>0.09857744410324652</v>
       </c>
       <c r="G89" t="n">
-        <v>0.031854571261666</v>
+        <v>0.03546628769366542</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1813871655.432791</v>
+        <v>1541240516.676093</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1298272579694699</v>
+        <v>0.1042276906671133</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04187208809894877</v>
+        <v>0.04765307901802387</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2076793813.754158</v>
+        <v>1765374448.050048</v>
       </c>
       <c r="F91" t="n">
-        <v>0.164238496067506</v>
+        <v>0.1766119038276981</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06007955234894771</v>
+        <v>0.04132976641896075</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1964404413.977714</v>
+        <v>2326852796.925681</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09032352867256783</v>
+        <v>0.1017656076995962</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03307817212628029</v>
+        <v>0.0406721312450191</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3350440977.149642</v>
+        <v>4419445841.79486</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1165018682638595</v>
+        <v>0.1128872995946019</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05126943189013449</v>
+        <v>0.03482903914429737</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>174</v>
+      </c>
+      <c r="J93" t="n">
+        <v>371</v>
+      </c>
+      <c r="K93" t="n">
+        <v>57.39691710451012</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2099431042.699802</v>
+        <v>1698482984.932243</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1382293642922856</v>
+        <v>0.1304206696968701</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03087954863179664</v>
+        <v>0.02928377259269978</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3021024820.539542</v>
+        <v>2282160563.440964</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1337111951538136</v>
+        <v>0.1144119153303822</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05159197049973014</v>
+        <v>0.03986315306350171</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1924582534.942358</v>
+        <v>1605046422.53397</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1331391391678991</v>
+        <v>0.1063773240473811</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0424448141012356</v>
+        <v>0.0304517920276204</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4310153019.294611</v>
+        <v>3622733176.005714</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1417921509213668</v>
+        <v>0.1511309842842649</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01817971337238398</v>
+        <v>0.02129614368045224</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>193</v>
+      </c>
+      <c r="J97" t="n">
+        <v>371</v>
+      </c>
+      <c r="K97" t="n">
+        <v>53.02986514816397</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3267695605.280297</v>
+        <v>3684534033.567201</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08335915358254975</v>
+        <v>0.1176080404909354</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02588382788585699</v>
+        <v>0.03100964217660972</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>93</v>
+      </c>
+      <c r="J98" t="n">
+        <v>372</v>
+      </c>
+      <c r="K98" t="n">
+        <v>63.47941937280739</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2648087566.80426</v>
+        <v>2637331902.579736</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1142133839203341</v>
+        <v>0.1271342728050849</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03135230118868704</v>
+        <v>0.02796221881826189</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3802284861.340615</v>
+        <v>4296989363.688124</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1254336014577717</v>
+        <v>0.152078150137488</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0194038011333755</v>
+        <v>0.01847121543939056</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>169</v>
+      </c>
+      <c r="J100" t="n">
+        <v>372</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3293093218.149449</v>
+        <v>3162335493.784613</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2021288285365168</v>
+        <v>0.1563281683576291</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04479315327326203</v>
+        <v>0.04775123220152844</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
